--- a/data/Table_2.1_Energy_Consumption_by_Sector.xlsx
+++ b/data/Table_2.1_Energy_Consumption_by_Sector.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>July 2020 Monthly Energy Review</t>
+    <t>August 2020 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: July 28, 2020</t>
+    <t>Release Date: August 26, 2020</t>
   </si>
   <si>
-    <t>Next Update: August 26, 2020</t>
+    <t>Next Update: September 24, 2020</t>
   </si>
   <si>
     <t>Table 2.1 Energy Consumption by Sector</t>
@@ -479,7 +479,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L580"/>
+  <dimension ref="A1:L581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -21587,22 +21587,22 @@
         <v>43466</v>
       </c>
       <c r="B565">
-        <v>1204.723</v>
+        <v>1204.702</v>
       </c>
       <c r="C565">
-        <v>2545.882</v>
+        <v>2545.862</v>
       </c>
       <c r="D565">
-        <v>699.189</v>
+        <v>699.184</v>
       </c>
       <c r="E565">
-        <v>1822.774</v>
+        <v>1822.769</v>
       </c>
       <c r="F565">
-        <v>2060.082</v>
+        <v>2060.107</v>
       </c>
       <c r="G565">
-        <v>2850.492</v>
+        <v>2850.517</v>
       </c>
       <c r="H565">
         <v>2280.629</v>
@@ -21625,22 +21625,22 @@
         <v>43497</v>
       </c>
       <c r="B566">
-        <v>1022.803</v>
+        <v>1022.817</v>
       </c>
       <c r="C566">
-        <v>2158.59</v>
+        <v>2158.604</v>
       </c>
       <c r="D566">
-        <v>597.852</v>
+        <v>597.855</v>
       </c>
       <c r="E566">
-        <v>1589.993</v>
+        <v>1589.997</v>
       </c>
       <c r="F566">
-        <v>1795.572</v>
+        <v>1795.555</v>
       </c>
       <c r="G566">
-        <v>2504.58</v>
+        <v>2504.562</v>
       </c>
       <c r="H566">
         <v>2098.154</v>
@@ -21663,22 +21663,22 @@
         <v>43525</v>
       </c>
       <c r="B567">
-        <v>897.426</v>
+        <v>897.415</v>
       </c>
       <c r="C567">
-        <v>2005.176</v>
+        <v>2005.165</v>
       </c>
       <c r="D567">
-        <v>551.022</v>
+        <v>551.019</v>
       </c>
       <c r="E567">
-        <v>1606.908</v>
+        <v>1606.905</v>
       </c>
       <c r="F567">
-        <v>1946.849</v>
+        <v>1946.862</v>
       </c>
       <c r="G567">
-        <v>2709.439</v>
+        <v>2709.452</v>
       </c>
       <c r="H567">
         <v>2351.583</v>
@@ -21701,22 +21701,22 @@
         <v>43556</v>
       </c>
       <c r="B568">
-        <v>480.615</v>
+        <v>480.613</v>
       </c>
       <c r="C568">
-        <v>1367.723</v>
+        <v>1367.721</v>
       </c>
       <c r="D568">
-        <v>346.037</v>
+        <v>346.036</v>
       </c>
       <c r="E568">
         <v>1352.546</v>
       </c>
       <c r="F568">
-        <v>1839.09</v>
+        <v>1839.092</v>
       </c>
       <c r="G568">
-        <v>2593.413</v>
+        <v>2593.416</v>
       </c>
       <c r="H568">
         <v>2308.345</v>
@@ -21739,22 +21739,22 @@
         <v>43586</v>
       </c>
       <c r="B569">
-        <v>347.629</v>
+        <v>347.638</v>
       </c>
       <c r="C569">
-        <v>1362.466</v>
+        <v>1362.475</v>
       </c>
       <c r="D569">
-        <v>276.299</v>
+        <v>276.301</v>
       </c>
       <c r="E569">
-        <v>1403.786</v>
+        <v>1403.788</v>
       </c>
       <c r="F569">
-        <v>1909.02</v>
+        <v>1909.009</v>
       </c>
       <c r="G569">
-        <v>2729.114</v>
+        <v>2729.102</v>
       </c>
       <c r="H569">
         <v>2409.751</v>
@@ -21777,22 +21777,22 @@
         <v>43617</v>
       </c>
       <c r="B570">
-        <v>246.367</v>
+        <v>246.372</v>
       </c>
       <c r="C570">
-        <v>1448.271</v>
+        <v>1448.276</v>
       </c>
       <c r="D570">
-        <v>228.093</v>
+        <v>228.094</v>
       </c>
       <c r="E570">
-        <v>1387.954</v>
+        <v>1387.955</v>
       </c>
       <c r="F570">
-        <v>1839.61</v>
+        <v>1839.603</v>
       </c>
       <c r="G570">
-        <v>2650.323</v>
+        <v>2650.317</v>
       </c>
       <c r="H570">
         <v>2410.307</v>
@@ -21827,7 +21827,7 @@
         <v>1530.957</v>
       </c>
       <c r="F571">
-        <v>1919.992</v>
+        <v>1919.991</v>
       </c>
       <c r="G571">
         <v>2779.755</v>
@@ -21853,22 +21853,22 @@
         <v>43678</v>
       </c>
       <c r="B572">
-        <v>229.626</v>
+        <v>229.622</v>
       </c>
       <c r="C572">
-        <v>1698.777</v>
+        <v>1698.773</v>
       </c>
       <c r="D572">
-        <v>234.266</v>
+        <v>234.265</v>
       </c>
       <c r="E572">
-        <v>1512.36</v>
+        <v>1512.359</v>
       </c>
       <c r="F572">
-        <v>1949.941</v>
+        <v>1949.946</v>
       </c>
       <c r="G572">
-        <v>2798.186</v>
+        <v>2798.191</v>
       </c>
       <c r="H572">
         <v>2529.972</v>
@@ -21897,13 +21897,13 @@
         <v>1483.47</v>
       </c>
       <c r="D573">
-        <v>222.987</v>
+        <v>222.988</v>
       </c>
       <c r="E573">
         <v>1390.941</v>
       </c>
       <c r="F573">
-        <v>1891.52</v>
+        <v>1891.519</v>
       </c>
       <c r="G573">
         <v>2678.71</v>
@@ -21929,22 +21929,22 @@
         <v>43739</v>
       </c>
       <c r="B574">
-        <v>373.669</v>
+        <v>373.684</v>
       </c>
       <c r="C574">
-        <v>1394.99</v>
+        <v>1395.005</v>
       </c>
       <c r="D574">
-        <v>310.767</v>
+        <v>310.771</v>
       </c>
       <c r="E574">
-        <v>1396.003</v>
+        <v>1396.007</v>
       </c>
       <c r="F574">
-        <v>1974.985</v>
+        <v>1974.967</v>
       </c>
       <c r="G574">
-        <v>2733.497</v>
+        <v>2733.478</v>
       </c>
       <c r="H574">
         <v>2431.818</v>
@@ -21959,7 +21959,7 @@
         <v>-2.549</v>
       </c>
       <c r="L574">
-        <v>7958.936</v>
+        <v>7958.937</v>
       </c>
     </row>
     <row r="575" spans="1:12">
@@ -21967,22 +21967,22 @@
         <v>43770</v>
       </c>
       <c r="B575">
-        <v>782.436</v>
+        <v>782.414</v>
       </c>
       <c r="C575">
-        <v>1811.502</v>
+        <v>1811.48</v>
       </c>
       <c r="D575">
-        <v>499.319</v>
+        <v>499.314</v>
       </c>
       <c r="E575">
-        <v>1534.864</v>
+        <v>1534.858</v>
       </c>
       <c r="F575">
-        <v>1954.722</v>
+        <v>1954.748</v>
       </c>
       <c r="G575">
-        <v>2718.906</v>
+        <v>2718.933</v>
       </c>
       <c r="H575">
         <v>2287.971</v>
@@ -22005,22 +22005,22 @@
         <v>43800</v>
       </c>
       <c r="B576">
-        <v>980.076</v>
+        <v>980.091</v>
       </c>
       <c r="C576">
-        <v>2172.497</v>
+        <v>2172.512</v>
       </c>
       <c r="D576">
-        <v>588.339</v>
+        <v>588.342</v>
       </c>
       <c r="E576">
-        <v>1647.853</v>
+        <v>1647.856</v>
       </c>
       <c r="F576">
-        <v>2002.984</v>
+        <v>2002.966</v>
       </c>
       <c r="G576">
-        <v>2755.548</v>
+        <v>2755.53</v>
       </c>
       <c r="H576">
         <v>2322.102</v>
@@ -22043,37 +22043,37 @@
         <v>43831</v>
       </c>
       <c r="B577">
-        <v>1038.414</v>
+        <v>1038.384</v>
       </c>
       <c r="C577">
-        <v>2247.511</v>
+        <v>2247.38</v>
       </c>
       <c r="D577">
-        <v>618.67</v>
+        <v>618.663</v>
       </c>
       <c r="E577">
-        <v>1671.259</v>
+        <v>1671.164</v>
       </c>
       <c r="F577">
-        <v>2003.988</v>
+        <v>2004.026</v>
       </c>
       <c r="G577">
-        <v>2760.185</v>
+        <v>2760.16</v>
       </c>
       <c r="H577">
         <v>2270.163</v>
       </c>
       <c r="I577">
-        <v>2277.145</v>
+        <v>2277.144</v>
       </c>
       <c r="J577">
-        <v>3024.864</v>
+        <v>3024.613</v>
       </c>
       <c r="K577">
         <v>-4.441</v>
       </c>
       <c r="L577">
-        <v>8951.658</v>
+        <v>8951.407</v>
       </c>
     </row>
     <row r="578" spans="1:12">
@@ -22081,37 +22081,37 @@
         <v>43862</v>
       </c>
       <c r="B578">
-        <v>931.951</v>
+        <v>931.934</v>
       </c>
       <c r="C578">
-        <v>2019.399</v>
+        <v>2018.306</v>
       </c>
       <c r="D578">
-        <v>563.269</v>
+        <v>563.265</v>
       </c>
       <c r="E578">
-        <v>1554.32</v>
+        <v>1553.334</v>
       </c>
       <c r="F578">
-        <v>1867.097</v>
+        <v>1867.119</v>
       </c>
       <c r="G578">
-        <v>2601.625</v>
+        <v>2600.919</v>
       </c>
       <c r="H578">
         <v>2133.192</v>
       </c>
       <c r="I578">
-        <v>2139.224</v>
+        <v>2139.218</v>
       </c>
       <c r="J578">
-        <v>2819.06</v>
+        <v>2816.266</v>
       </c>
       <c r="K578">
         <v>-5.977</v>
       </c>
       <c r="L578">
-        <v>8308.592</v>
+        <v>8305.8</v>
       </c>
     </row>
     <row r="579" spans="1:12">
@@ -22119,37 +22119,37 @@
         <v>43891</v>
       </c>
       <c r="B579">
-        <v>707.327</v>
+        <v>707.359</v>
       </c>
       <c r="C579">
-        <v>1701.765</v>
+        <v>1702.27</v>
       </c>
       <c r="D579">
-        <v>447.291</v>
+        <v>447.298</v>
       </c>
       <c r="E579">
-        <v>1431.783</v>
+        <v>1432.259</v>
       </c>
       <c r="F579">
-        <v>1912.383</v>
+        <v>1912.497</v>
       </c>
       <c r="G579">
-        <v>2653.706</v>
+        <v>2654.172</v>
       </c>
       <c r="H579">
-        <v>2050.078</v>
+        <v>2050.083</v>
       </c>
       <c r="I579">
-        <v>2055.851</v>
+        <v>2055.859</v>
       </c>
       <c r="J579">
-        <v>2726.026</v>
+        <v>2727.323</v>
       </c>
       <c r="K579">
         <v>-6.213</v>
       </c>
       <c r="L579">
-        <v>7836.892</v>
+        <v>7838.347</v>
       </c>
     </row>
     <row r="580" spans="1:12">
@@ -22157,37 +22157,75 @@
         <v>43922</v>
       </c>
       <c r="B580">
-        <v>542.007</v>
+        <v>541.988</v>
       </c>
       <c r="C580">
-        <v>1467.437</v>
+        <v>1467.066</v>
       </c>
       <c r="D580">
-        <v>330.052</v>
+        <v>330.048</v>
       </c>
       <c r="E580">
-        <v>1190.4</v>
+        <v>1190.068</v>
       </c>
       <c r="F580">
-        <v>1649.689</v>
+        <v>1649.964</v>
       </c>
       <c r="G580">
-        <v>2309.567</v>
+        <v>2309.591</v>
       </c>
       <c r="H580">
-        <v>1568.188</v>
+        <v>1568.196</v>
       </c>
       <c r="I580">
-        <v>1572.471</v>
+        <v>1572.477</v>
       </c>
       <c r="J580">
-        <v>2449.938</v>
+        <v>2449.006</v>
       </c>
       <c r="K580">
         <v>-7.793</v>
       </c>
       <c r="L580">
-        <v>6532.082</v>
+        <v>6531.408</v>
+      </c>
+    </row>
+    <row r="581" spans="1:12">
+      <c r="A581" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B581">
+        <v>390.455</v>
+      </c>
+      <c r="C581">
+        <v>1451.572</v>
+      </c>
+      <c r="D581">
+        <v>257.132</v>
+      </c>
+      <c r="E581">
+        <v>1197.248</v>
+      </c>
+      <c r="F581">
+        <v>1706.681</v>
+      </c>
+      <c r="G581">
+        <v>2423.809</v>
+      </c>
+      <c r="H581">
+        <v>1799.352</v>
+      </c>
+      <c r="I581">
+        <v>1803.908</v>
+      </c>
+      <c r="J581">
+        <v>2722.916</v>
+      </c>
+      <c r="K581">
+        <v>-6.688</v>
+      </c>
+      <c r="L581">
+        <v>6869.847</v>
       </c>
     </row>
   </sheetData>
@@ -25036,7 +25074,7 @@
         <v>-5.764</v>
       </c>
       <c r="L83">
-        <v>100165.86</v>
+        <v>100165.861</v>
       </c>
     </row>
   </sheetData>
